--- a/coordinates_sample/102左冯翊/102左冯翊.xlsx
+++ b/coordinates_sample/102左冯翊/102左冯翊.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="102(CHGIS)" sheetId="1" r:id="rId1"/>
@@ -618,12 +618,12 @@
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1024" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -652,7 +652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -681,7 +681,7 @@
         <v>70740</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -710,7 +710,7 @@
         <v>70639</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -739,7 +739,7 @@
         <v>70670</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -768,7 +768,7 @@
         <v>70763</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -797,7 +797,7 @@
         <v>70426</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -826,7 +826,7 @@
         <v>70432</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -855,7 +855,7 @@
         <v>70431</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -884,7 +884,7 @@
         <v>70423</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -913,7 +913,7 @@
         <v>70430</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -942,7 +942,7 @@
         <v>70424</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -971,7 +971,7 @@
         <v>70425</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>70417</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>70643</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -1068,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1436,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="A1:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
